--- a/RePrice 10.08.2018.xlsx
+++ b/RePrice 10.08.2018.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+      <selection activeCell="A47" sqref="A47:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,10 +869,10 @@
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -880,10 +880,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -891,10 +891,10 @@
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -930,10 +930,10 @@
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -941,10 +941,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
